--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt5a-Ryk.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Wnt5a</t>
+  </si>
+  <si>
+    <t>Ryk</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Wnt5a</t>
-  </si>
-  <si>
-    <t>Ryk</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H2">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I2">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J2">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.429446</v>
+        <v>8.799974000000001</v>
       </c>
       <c r="N2">
-        <v>34.288338</v>
+        <v>26.399922</v>
       </c>
       <c r="O2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="P2">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="Q2">
-        <v>0.4846275594766666</v>
+        <v>77.219824649844</v>
       </c>
       <c r="R2">
-        <v>4.36164803529</v>
+        <v>694.978421848596</v>
       </c>
       <c r="S2">
-        <v>0.001024078235828342</v>
+        <v>0.1490291456454027</v>
       </c>
       <c r="T2">
-        <v>0.001024078235828342</v>
+        <v>0.1490291456454027</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H3">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I3">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J3">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>79.081869</v>
       </c>
       <c r="O3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="P3">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="Q3">
-        <v>1.117734349571667</v>
+        <v>231.314624988738</v>
       </c>
       <c r="R3">
-        <v>10.059609146145</v>
+        <v>2081.831624898642</v>
       </c>
       <c r="S3">
-        <v>0.002361911530723014</v>
+        <v>0.4464219012886346</v>
       </c>
       <c r="T3">
-        <v>0.002361911530723013</v>
+        <v>0.4464219012886346</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H4">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I4">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J4">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.731426</v>
+        <v>23.07309566666667</v>
       </c>
       <c r="N4">
-        <v>44.194278</v>
+        <v>69.21928700000001</v>
       </c>
       <c r="O4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="P4">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="Q4">
-        <v>0.6246370147766666</v>
+        <v>202.466552913574</v>
       </c>
       <c r="R4">
-        <v>5.621733132989999</v>
+        <v>1822.198976222166</v>
       </c>
       <c r="S4">
-        <v>0.001319935607492767</v>
+        <v>0.3907470334114597</v>
       </c>
       <c r="T4">
-        <v>0.001319935607492767</v>
+        <v>0.3907470334114597</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.04240166666666666</v>
+        <v>8.775005999999999</v>
       </c>
       <c r="H5">
-        <v>0.127205</v>
+        <v>26.325018</v>
       </c>
       <c r="I5">
-        <v>0.004737824075193167</v>
+        <v>0.9920592728348052</v>
       </c>
       <c r="J5">
-        <v>0.004737824075193166</v>
+        <v>0.9920592728348053</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.3560123333333333</v>
+        <v>0.3460956666666666</v>
       </c>
       <c r="N5">
-        <v>1.068037</v>
+        <v>1.038287</v>
       </c>
       <c r="O5">
-        <v>0.006732774506352486</v>
+        <v>0.005908107156299329</v>
       </c>
       <c r="P5">
-        <v>0.006732774506352486</v>
+        <v>0.00590810715629933</v>
       </c>
       <c r="Q5">
-        <v>0.01509551628722222</v>
+        <v>3.036991551573999</v>
       </c>
       <c r="R5">
-        <v>0.135859646585</v>
+        <v>27.332923964166</v>
       </c>
       <c r="S5">
-        <v>3.189870114904359E-05</v>
+        <v>0.005861192489308421</v>
       </c>
       <c r="T5">
-        <v>3.189870114904359E-05</v>
+        <v>0.005861192489308423</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,31 +770,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H6">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J6">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.429446</v>
+        <v>8.799974000000001</v>
       </c>
       <c r="N6">
-        <v>34.288338</v>
+        <v>26.399922</v>
       </c>
       <c r="O6">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="P6">
-        <v>0.2161494854125814</v>
+        <v>0.1502220177021807</v>
       </c>
       <c r="Q6">
-        <v>100.293457226676</v>
+        <v>0.6180896404873334</v>
       </c>
       <c r="R6">
-        <v>902.6411150400841</v>
+        <v>5.562806764386</v>
       </c>
       <c r="S6">
-        <v>0.2119325340323836</v>
+        <v>0.001192872056778071</v>
       </c>
       <c r="T6">
-        <v>0.2119325340323836</v>
+        <v>0.001192872056778071</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,31 +832,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H7">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J7">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>79.081869</v>
       </c>
       <c r="O7">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="P7">
-        <v>0.4985224215246354</v>
+        <v>0.4499951903206205</v>
       </c>
       <c r="Q7">
-        <v>231.314624988738</v>
+        <v>1.851508651399667</v>
       </c>
       <c r="R7">
-        <v>2081.831624898642</v>
+        <v>16.663577862597</v>
       </c>
       <c r="S7">
-        <v>0.4887965375629172</v>
+        <v>0.003573289031985925</v>
       </c>
       <c r="T7">
-        <v>0.4887965375629172</v>
+        <v>0.003573289031985926</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,31 +894,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H8">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J8">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.731426</v>
+        <v>23.07309566666667</v>
       </c>
       <c r="N8">
-        <v>44.194278</v>
+        <v>69.21928700000001</v>
       </c>
       <c r="O8">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="P8">
-        <v>0.2785953185564307</v>
+        <v>0.3938746848208995</v>
       </c>
       <c r="Q8">
-        <v>129.268351538556</v>
+        <v>1.620600402403445</v>
       </c>
       <c r="R8">
-        <v>1163.415163847004</v>
+        <v>14.585403621631</v>
       </c>
       <c r="S8">
-        <v>0.2731600851074094</v>
+        <v>0.00312765140943983</v>
       </c>
       <c r="T8">
-        <v>0.2731600851074094</v>
+        <v>0.003127651409439831</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,31 +956,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>8.775005999999999</v>
+        <v>0.07023766666666667</v>
       </c>
       <c r="H9">
-        <v>26.325018</v>
+        <v>0.210713</v>
       </c>
       <c r="I9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194733</v>
       </c>
       <c r="J9">
-        <v>0.9804905786745289</v>
+        <v>0.007940727165194734</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,276 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.3560123333333333</v>
+        <v>0.3460956666666666</v>
       </c>
       <c r="N9">
-        <v>1.068037</v>
+        <v>1.038287</v>
       </c>
       <c r="O9">
-        <v>0.006732774506352486</v>
+        <v>0.005908107156299329</v>
       </c>
       <c r="P9">
-        <v>0.006732774506352486</v>
+        <v>0.00590810715629933</v>
       </c>
       <c r="Q9">
-        <v>3.124010361074</v>
+        <v>0.02430895207011111</v>
       </c>
       <c r="R9">
-        <v>28.116093249666</v>
+        <v>0.218780568631</v>
       </c>
       <c r="S9">
-        <v>0.006601421971818665</v>
+        <v>4.691466699090749E-05</v>
       </c>
       <c r="T9">
-        <v>0.006601421971818665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G10">
-        <v>0.1322</v>
-      </c>
-      <c r="H10">
-        <v>0.3966</v>
-      </c>
-      <c r="I10">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J10">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>11.429446</v>
-      </c>
-      <c r="N10">
-        <v>34.288338</v>
-      </c>
-      <c r="O10">
-        <v>0.2161494854125814</v>
-      </c>
-      <c r="P10">
-        <v>0.2161494854125814</v>
-      </c>
-      <c r="Q10">
-        <v>1.5109727612</v>
-      </c>
-      <c r="R10">
-        <v>13.5987548508</v>
-      </c>
-      <c r="S10">
-        <v>0.003192873144369487</v>
-      </c>
-      <c r="T10">
-        <v>0.003192873144369487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G11">
-        <v>0.1322</v>
-      </c>
-      <c r="H11">
-        <v>0.3966</v>
-      </c>
-      <c r="I11">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J11">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>26.360623</v>
-      </c>
-      <c r="N11">
-        <v>79.081869</v>
-      </c>
-      <c r="O11">
-        <v>0.4985224215246354</v>
-      </c>
-      <c r="P11">
-        <v>0.4985224215246354</v>
-      </c>
-      <c r="Q11">
-        <v>3.484874360600001</v>
-      </c>
-      <c r="R11">
-        <v>31.3638692454</v>
-      </c>
-      <c r="S11">
-        <v>0.007363972430995222</v>
-      </c>
-      <c r="T11">
-        <v>0.00736397243099522</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.1322</v>
-      </c>
-      <c r="H12">
-        <v>0.3966</v>
-      </c>
-      <c r="I12">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J12">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>14.731426</v>
-      </c>
-      <c r="N12">
-        <v>44.194278</v>
-      </c>
-      <c r="O12">
-        <v>0.2785953185564307</v>
-      </c>
-      <c r="P12">
-        <v>0.2785953185564307</v>
-      </c>
-      <c r="Q12">
-        <v>1.9474945172</v>
-      </c>
-      <c r="R12">
-        <v>17.5274506548</v>
-      </c>
-      <c r="S12">
-        <v>0.004115297841528488</v>
-      </c>
-      <c r="T12">
-        <v>0.004115297841528487</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.1322</v>
-      </c>
-      <c r="H13">
-        <v>0.3966</v>
-      </c>
-      <c r="I13">
-        <v>0.01477159725027798</v>
-      </c>
-      <c r="J13">
-        <v>0.01477159725027797</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.3560123333333333</v>
-      </c>
-      <c r="N13">
-        <v>1.068037</v>
-      </c>
-      <c r="O13">
-        <v>0.006732774506352486</v>
-      </c>
-      <c r="P13">
-        <v>0.006732774506352486</v>
-      </c>
-      <c r="Q13">
-        <v>0.04706483046666667</v>
-      </c>
-      <c r="R13">
-        <v>0.4235834742</v>
-      </c>
-      <c r="S13">
-        <v>9.945383338477804E-05</v>
-      </c>
-      <c r="T13">
-        <v>9.945383338477803E-05</v>
+        <v>4.69146669909075E-05</v>
       </c>
     </row>
   </sheetData>
